--- a/Excel Workbooks/100/100Pi3.xlsx
+++ b/Excel Workbooks/100/100Pi3.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\StatsProject\Excel Workbooks\100\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E7C788-7E56-4BC2-9B0F-AE411335B56F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -40,8 +46,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +84,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -124,7 +138,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -156,9 +170,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,6 +222,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -365,14 +415,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -386,40 +441,40 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.08862047947092899</v>
+        <v>8.8620479470928992E-2</v>
       </c>
       <c r="B2">
-        <v>0.01019775320775029</v>
+        <v>1.019775320775029E-2</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
       </c>
       <c r="G2">
-        <v>-0.06159265358979304</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-6.1592653589793038E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.1119714657682999</v>
       </c>
       <c r="B3">
-        <v>0.9525581488848623</v>
+        <v>0.95255814888486234</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
       </c>
       <c r="G3">
-        <v>-1.960555055392467</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-1.9605550553924671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.9437088859242319</v>
+        <v>0.94370888592423186</v>
       </c>
       <c r="B4">
-        <v>0.5834260646138482</v>
+        <v>0.58342606461384816</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -428,223 +483,223 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.06448275992541164</v>
+        <v>6.4482759925411637E-2</v>
       </c>
       <c r="B5">
-        <v>0.8547067471580763</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.85470674715807626</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.3880960681073707</v>
+        <v>0.38809606810737068</v>
       </c>
       <c r="B6">
-        <v>0.06240280837580114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>6.2402808375801137E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.4618039334497471</v>
+        <v>0.46180393344974707</v>
       </c>
       <c r="B7">
-        <v>0.2687814073937922</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.26878140739379219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.4631191625905959</v>
+        <v>0.46311916259059588</v>
       </c>
       <c r="B8">
-        <v>0.4543067350691872</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.45430673506918717</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.5512015796340487</v>
       </c>
       <c r="B9">
-        <v>0.5281667715444586</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.52816677154445857</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.4753992323201529</v>
+        <v>0.47539923232015291</v>
       </c>
       <c r="B10">
-        <v>0.06167797207623171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>6.1677972076231713E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.005505010452963921</v>
+        <v>5.505010452963921E-3</v>
       </c>
       <c r="B11">
-        <v>0.3834569741582498</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.38345697415824981</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.265479481201819</v>
+        <v>0.26547948120181902</v>
       </c>
       <c r="B12">
-        <v>0.8542068004737075</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.85420680047370745</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.4104832842867793</v>
+        <v>0.41048328428677933</v>
       </c>
       <c r="B13">
-        <v>0.7477908409316987</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.74779084093169867</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.2029360328199926</v>
+        <v>0.20293603281999259</v>
       </c>
       <c r="B14">
-        <v>0.3937166707974405</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.39371667079744049</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.5457939191407597</v>
       </c>
       <c r="B15">
-        <v>0.9115616926632729</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.91156169266327292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.09315676004655749</v>
+        <v>9.3156760046557485E-2</v>
       </c>
       <c r="B16">
-        <v>0.9583637463329924</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.95836374633299237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.7281524576926586</v>
+        <v>0.72815245769265857</v>
       </c>
       <c r="B17">
-        <v>0.5617666836529507</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>0.56176668365295068</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.8798937483606024</v>
+        <v>0.87989374836060241</v>
       </c>
       <c r="B18">
-        <v>0.01788924050523133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>1.788924050523133E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.6798898438414434</v>
+        <v>0.67988984384144335</v>
       </c>
       <c r="B19">
-        <v>0.92164766197095</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>0.92164766197095005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.4097205621749611</v>
+        <v>0.40972056217496111</v>
       </c>
       <c r="B20">
-        <v>0.6534067501516544</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.65340675015165439</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.733026656912989</v>
+        <v>0.73302665691298896</v>
       </c>
       <c r="B21">
-        <v>0.3494630075945589</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.34946300759455889</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0.7824149544515236</v>
+        <v>0.78241495445152365</v>
       </c>
       <c r="B22">
-        <v>0.3674446907028346</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.36744469070283459</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0.7208936316795554</v>
+        <v>0.72089363167955545</v>
       </c>
       <c r="B23">
-        <v>0.5554082977666869</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.55540829776668688</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0.7992396386920182</v>
+        <v>0.79923963869201819</v>
       </c>
       <c r="B24">
-        <v>0.5466613105717094</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.54666131057170941</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.04904856332254293</v>
+        <v>4.9048563322542933E-2</v>
       </c>
       <c r="B25">
-        <v>0.4720861463509665</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.47208614635096652</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.6259962008721717</v>
+        <v>0.62599620087217167</v>
       </c>
       <c r="B26">
-        <v>0.5614127210905827</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.56141272109058271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.7218158133997624</v>
+        <v>0.72181581339976242</v>
       </c>
       <c r="B27">
-        <v>0.4032779209863724</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>0.40327792098637238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0.04357801548316731</v>
+        <v>4.3578015483167309E-2</v>
       </c>
       <c r="B28">
-        <v>0.09883446306810806</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>9.8834463068108058E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.8565060487559942</v>
+        <v>0.85650604875599423</v>
       </c>
       <c r="B29">
-        <v>0.9148997741338156</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.91489977413381562</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.4859641897993255</v>
+        <v>0.48596418979932549</v>
       </c>
       <c r="B30">
-        <v>0.9022163115510741</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.90221631155107407</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.01085776597394139</v>
+        <v>1.0857765973941389E-2</v>
       </c>
       <c r="B31">
-        <v>0.7223824293818181</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.72238242938181807</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.2168564954769259</v>
       </c>
@@ -652,553 +707,553 @@
         <v>0.6037927404967226</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.1063769004366393</v>
       </c>
       <c r="B33">
-        <v>0.533056633975061</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.53305663397506098</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0.088701280338921</v>
+        <v>8.8701280338920996E-2</v>
       </c>
       <c r="B34">
-        <v>0.6022245348803758</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.60222453488037575</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.5597614057819044</v>
+        <v>0.55976140578190436</v>
       </c>
       <c r="B35">
-        <v>0.3006652872012737</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.30066528720127372</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0.2646393414231104</v>
+        <v>0.26463934142311041</v>
       </c>
       <c r="B36">
         <v>0.2215132565746577</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.3673702329292089</v>
       </c>
       <c r="B37">
-        <v>0.8284560100392597</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>0.82845601003925973</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.8451442904244999</v>
       </c>
       <c r="B38">
-        <v>0.7455803968801497</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.74558039688014965</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0.1183211484982851</v>
+        <v>0.11832114849828509</v>
       </c>
       <c r="B39">
-        <v>0.7221561685672536</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.72215616856725362</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>0.9580941209592463</v>
+        <v>0.95809412095924629</v>
       </c>
       <c r="B40">
-        <v>0.717824028484005</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.71782402848400495</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0.8653241915562682</v>
+        <v>0.86532419155626816</v>
       </c>
       <c r="B41">
-        <v>0.4866285734742135</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.48662857347421351</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>0.09240357782624897</v>
+        <v>9.2403577826248973E-2</v>
       </c>
       <c r="B42">
-        <v>0.9132646004607917</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>0.91326460046079172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>0.5272748346152507</v>
+        <v>0.52727483461525071</v>
       </c>
       <c r="B43">
-        <v>0.5002961128943236</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.50029611289432363</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>0.6674710086908446</v>
+        <v>0.66747100869084464</v>
       </c>
       <c r="B44">
-        <v>0.4840171368178279</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.48401713681782788</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>0.639020826408737</v>
+        <v>0.63902082640873703</v>
       </c>
       <c r="B45">
-        <v>0.8436240638099544</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>0.84362406380995436</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>0.3059128008865674</v>
+        <v>0.30591280088656742</v>
       </c>
       <c r="B46">
-        <v>0.6655257026865976</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.66552570268659761</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>0.1415549823737776</v>
+        <v>0.14155498237377759</v>
       </c>
       <c r="B47">
         <v>0.2382324319657376</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>0.4298650684442789</v>
+        <v>0.42986506844427891</v>
       </c>
       <c r="B48">
-        <v>0.2946230785668152</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.29462307856681519</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>0.7278012307039908</v>
+        <v>0.72780123070399083</v>
       </c>
       <c r="B49">
-        <v>0.3746729382228919</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.37467293822289188</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>0.7105553837192968</v>
+        <v>0.71055538371929683</v>
       </c>
       <c r="B50">
-        <v>0.5931090093745143</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.59310900937451427</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0.1522026354272524</v>
       </c>
       <c r="B51">
-        <v>0.253408097485629</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.25340809748562898</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>0.2152614126080196</v>
+        <v>0.21526141260801959</v>
       </c>
       <c r="B52">
-        <v>0.7264931340853353</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>0.72649313408533533</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0.8948107369955709</v>
       </c>
       <c r="B53">
-        <v>0.7936182598563409</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.79361825985634094</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>0.04832550824882442</v>
+        <v>4.8325508248824423E-2</v>
       </c>
       <c r="B54">
-        <v>0.5044158997113728</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.50441589971137279</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>0.9525642279619898</v>
+        <v>0.95256422796198981</v>
       </c>
       <c r="B55">
-        <v>0.3174050140223478</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.31740501402234778</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>0.1896062629026954</v>
+        <v>0.18960626290269539</v>
       </c>
       <c r="B56">
-        <v>0.276729850175047</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.27672985017504698</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>0.43922483193429</v>
+        <v>0.43922483193429002</v>
       </c>
       <c r="B57">
-        <v>0.6183087897498438</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>0.61830878974984382</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>0.9367086387633624</v>
+        <v>0.93670863876336241</v>
       </c>
       <c r="B58">
-        <v>0.5566060402967506</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.55660604029675065</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>0.7156139401858058</v>
+        <v>0.71561394018580582</v>
       </c>
       <c r="B59">
-        <v>0.4322504887455114</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.43225048874551142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>0.70871745471724</v>
+        <v>0.70871745471724001</v>
       </c>
       <c r="B60">
-        <v>0.05241783470430927</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>5.2417834704309267E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>0.2282298619777109</v>
+        <v>0.22822986197771089</v>
       </c>
       <c r="B61">
-        <v>0.1426461842673103</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.14264618426731029</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>0.9880551890569153</v>
+        <v>0.98805518905691525</v>
       </c>
       <c r="B62">
-        <v>0.8227206967907332</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.82272069679073323</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>0.774334366235235</v>
+        <v>0.77433436623523499</v>
       </c>
       <c r="B63">
-        <v>0.8448146155902087</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.84481461559020865</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>0.04259742965733304</v>
+        <v>4.2597429657333041E-2</v>
       </c>
       <c r="B64">
-        <v>0.9428958468384144</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.94289584683841443</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>0.8334268704225933</v>
+        <v>0.83342687042259334</v>
       </c>
       <c r="B65">
-        <v>0.2746796869754863</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.27467968697548628</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>0.5014680901884747</v>
+        <v>0.50146809018847471</v>
       </c>
       <c r="B66">
-        <v>0.3726341954059518</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.37263419540595177</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>0.007646227907937897</v>
+        <v>7.646227907937897E-3</v>
       </c>
       <c r="B67">
-        <v>0.3585612803970458</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.35856128039704582</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>0.7121780374452796</v>
+        <v>0.71217803744527963</v>
       </c>
       <c r="B68">
-        <v>0.2672679609652522</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.26726796096525218</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>0.7386742061541206</v>
+        <v>0.73867420615412061</v>
       </c>
       <c r="B69">
-        <v>0.2956579707753607</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.29565797077536071</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>0.8168218811021508</v>
+        <v>0.81682188110215082</v>
       </c>
       <c r="B70">
-        <v>0.7051834993107479</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.70518349931074786</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>0.02171556545731013</v>
+        <v>2.171556545731013E-2</v>
       </c>
       <c r="B71">
-        <v>0.1050161130047434</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.10501611300474339</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>0.563067717510417</v>
+        <v>0.56306771751041695</v>
       </c>
       <c r="B72">
-        <v>0.3446752066903276</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.34467520669032758</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>0.06768538732620277</v>
+        <v>6.7685387326202773E-2</v>
       </c>
       <c r="B73">
-        <v>0.221281339327311</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.22128133932731101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>0.690813243570584</v>
+        <v>0.69081324357058405</v>
       </c>
       <c r="B74">
-        <v>0.2965940742852708</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.29659407428527079</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>0.7626341046351277</v>
+        <v>0.76263410463512771</v>
       </c>
       <c r="B75">
-        <v>0.9633017689167171</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.96330176891671715</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>0.1374137980610668</v>
+        <v>0.13741379806106679</v>
       </c>
       <c r="B76">
         <v>0.3767504313029969</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>0.244798624237602</v>
+        <v>0.24479862423760201</v>
       </c>
       <c r="B77">
-        <v>0.4646605867836973</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.46466058678369732</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>0.1765950417281485</v>
+        <v>0.17659504172814849</v>
       </c>
       <c r="B78">
-        <v>0.5683553999727191</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.56835539997271911</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>0.7694122453410454</v>
+        <v>0.76941224534104535</v>
       </c>
       <c r="B79">
-        <v>0.5783302333975303</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.57833023339753031</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>0.2815323452724462</v>
+        <v>0.28153234527244619</v>
       </c>
       <c r="B80">
-        <v>0.9749187952157276</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.97491879521572755</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>0.7075481396128661</v>
+        <v>0.70754813961286611</v>
       </c>
       <c r="B81">
         <v>0.371194706265768</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>0.09346210908545438</v>
+        <v>9.3462109085454381E-2</v>
       </c>
       <c r="B82">
-        <v>0.3004715172109805</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.30047151721098048</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>0.8669305338475075</v>
+        <v>0.86693053384750751</v>
       </c>
       <c r="B83">
-        <v>0.6167437544101275</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.61674375441012752</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>0.6353093902936474</v>
+        <v>0.63530939029364741</v>
       </c>
       <c r="B84">
-        <v>0.8694345348817711</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.86943453488177114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>0.2421640669615899</v>
       </c>
       <c r="B85">
-        <v>0.7858101495824333</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.78581014958243334</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>0.7900132134011852</v>
+        <v>0.79001321340118524</v>
       </c>
       <c r="B86">
         <v>0.8447811362147063</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>0.7563931376666713</v>
+        <v>0.75639313766667127</v>
       </c>
       <c r="B87">
-        <v>0.3830889928226894</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.38308899282268938</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>0.2066022622897858</v>
+        <v>0.20660226228978579</v>
       </c>
       <c r="B88">
-        <v>0.5731035746732056</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.57310357467320561</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>0.6250519449363854</v>
+        <v>0.62505194493638538</v>
       </c>
       <c r="B89">
-        <v>0.8171819501720918</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.81718195017209183</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>0.5132240635325768</v>
+        <v>0.51322406353257677</v>
       </c>
       <c r="B90">
-        <v>0.5862156165516353</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.58621561655163534</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>0.7672591812867867</v>
+        <v>0.76725918128678672</v>
       </c>
       <c r="B91">
-        <v>0.5437009311191883</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.54370093111918827</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>0.9022700660838174</v>
+        <v>0.90227006608381743</v>
       </c>
       <c r="B92">
-        <v>0.6438393976802946</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.64383939768029463</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>0.7745002319516829</v>
+        <v>0.77450023195168294</v>
       </c>
       <c r="B93">
-        <v>0.6484247725638115</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.64842477256381148</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>0.3839706550294687</v>
       </c>
       <c r="B94">
-        <v>0.6985120575901482</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.69851205759014823</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>0.3963118052341177</v>
+        <v>0.39631180523411769</v>
       </c>
       <c r="B95">
-        <v>0.6504246325653991</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.65042463256539906</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>0.5983992400808226</v>
+        <v>0.59839924008082257</v>
       </c>
       <c r="B96">
-        <v>0.6033203443385217</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>0.60332034433852166</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>0.8391114091376314</v>
+        <v>0.83911140913763138</v>
       </c>
       <c r="B97">
-        <v>0.3709634573751772</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.37096345737517722</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>0.5380589650390731</v>
+        <v>0.53805896503907313</v>
       </c>
       <c r="B98">
-        <v>0.06703007655678439</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>6.703007655678439E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>0.7615479134163858</v>
+        <v>0.76154791341638584</v>
       </c>
       <c r="B99">
-        <v>0.6702185689094119</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.67021856890941189</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>0.03802139948626837</v>
+        <v>3.802139948626837E-2</v>
       </c>
       <c r="B100">
-        <v>0.8920358377462326</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>0.89203583774623263</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>0.9297910019595926</v>
+        <v>0.92979100195959263</v>
       </c>
       <c r="B101">
         <v>0.1221696736802131</v>
